--- a/data/trans_camb/P17G_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.6866358101187187</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.018514306172336</v>
+        <v>1.018514306172347</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.328215694302316</v>
@@ -664,7 +664,7 @@
         <v>-1.220224221199884</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.7843322731324376</v>
+        <v>0.7843322731324487</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.445311881555996</v>
+        <v>-5.462451632575513</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.518366903358266</v>
+        <v>-4.312294249137008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.327737923563538</v>
+        <v>-2.500017333478271</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4486223360609729</v>
+        <v>-0.4383262391409591</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.988946067078676</v>
+        <v>-5.84946320899432</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.392864534794547</v>
+        <v>-2.137923906221371</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.615951288891072</v>
+        <v>-1.766209206645476</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.898077605269627</v>
+        <v>-4.160252537264921</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.578132832099097</v>
+        <v>-1.668263269379741</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.715821455355276</v>
+        <v>2.768999469257415</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.45642292410849</v>
+        <v>3.680212520977416</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.255940656022347</v>
+        <v>4.936464493982191</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.63048417670368</v>
+        <v>5.69739571263399</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.192463631229612</v>
+        <v>2.084951268672165</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.994981323303152</v>
+        <v>4.634422998979202</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.476481638806737</v>
+        <v>3.20553764401264</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.652281157184195</v>
+        <v>1.308820555833275</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.353826823509064</v>
+        <v>3.094453648464432</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.007082086663732725</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.01050514184996692</v>
+        <v>0.01050514184996703</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.02417222537402216</v>
@@ -769,7 +769,7 @@
         <v>-0.01263765984481796</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.008123199245638398</v>
+        <v>0.008123199245638512</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05557499700651324</v>
+        <v>-0.05531607706643825</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04591471055076816</v>
+        <v>-0.04377094112522571</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.02346922305775489</v>
+        <v>-0.02568792784000602</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.004541500709188746</v>
+        <v>-0.004364122370337453</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06109513432070167</v>
+        <v>-0.06029800543918672</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02448429455850748</v>
+        <v>-0.02182034744137426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01677771424604657</v>
+        <v>-0.0180739460993233</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04008024733625741</v>
+        <v>-0.04309356928321831</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.01610073496013167</v>
+        <v>-0.01711040747852004</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.02856741328852069</v>
+        <v>0.02882512790106802</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03671982735983469</v>
+        <v>0.03878985419677942</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05589440352726668</v>
+        <v>0.05226754599127457</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.06015266078578391</v>
+        <v>0.06083119302512734</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02303488399053602</v>
+        <v>0.02193411321550155</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0423038289076829</v>
+        <v>0.0501532061928122</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.036705064742974</v>
+        <v>0.03372341560668806</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.0173512587713348</v>
+        <v>0.01372263997535575</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.03556609840176957</v>
+        <v>0.03256103599422298</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.44099342785855</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.124930532267946</v>
+        <v>-5.124930532267935</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.541654306438257</v>
@@ -869,7 +869,7 @@
         <v>2.930688198635267</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-1.469020066313309</v>
+        <v>-1.46902006631332</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.280612394313997</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.92892482538937</v>
+        <v>-3.352427605322591</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.400363643403349</v>
+        <v>-7.223807565914083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.68198716279522</v>
+        <v>-12.56561908876167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.152356622119837</v>
+        <v>-1.545988068545117</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6863884674708389</v>
+        <v>-0.7989718497762458</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.892277131483324</v>
+        <v>-5.807212036201982</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.029476341403075</v>
+        <v>-0.8460411482240915</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.003418784932984</v>
+        <v>-2.057233984404192</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.91832455823229</v>
+        <v>-6.930279351391199</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.537166268242647</v>
+        <v>7.934592642990271</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.578568190277713</v>
+        <v>4.671067915111967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.876759702829273</v>
+        <v>1.215026686009319</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.672433203743759</v>
+        <v>6.647926832162618</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.920195101256432</v>
+        <v>7.055241792770568</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.670522289457251</v>
+        <v>2.93822567147715</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.431078983160774</v>
+        <v>5.495045131438268</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.730102878166833</v>
+        <v>4.231721362423914</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5781031785003267</v>
+        <v>0.2688995222389933</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.01567023111484164</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.0557315837362933</v>
+        <v>-0.05573158373629317</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02730252042539377</v>
@@ -974,7 +974,7 @@
         <v>0.03148153318923571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.01578025393313131</v>
+        <v>-0.01578025393313143</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.0246128938245066</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04126956294303785</v>
+        <v>-0.03543068406789846</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07700281333930648</v>
+        <v>-0.07644944418638129</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1237863189773795</v>
+        <v>-0.132203725358356</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0118579607487611</v>
+        <v>-0.0164739673212021</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.007251722918133981</v>
+        <v>-0.008377072049352374</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06157362362522758</v>
+        <v>-0.06099859995925264</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01046368236713339</v>
+        <v>-0.008994994710185278</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02105233649314416</v>
+        <v>-0.02181912213264704</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07410114706997251</v>
+        <v>-0.07402035342664826</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.08465919134515176</v>
+        <v>0.09041015308279178</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.04084972486939297</v>
+        <v>0.05325602707847809</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.02081720710750738</v>
+        <v>0.013620621090398</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.07339947204365448</v>
+        <v>0.07332879950055955</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07778129931207994</v>
+        <v>0.07822890901670451</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02932333144078232</v>
+        <v>0.03245399306074227</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06057804251364818</v>
+        <v>0.06073584218739877</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05244614637960929</v>
+        <v>0.04694147427741071</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.006408450787789191</v>
+        <v>0.002501028874369622</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>6.427235032333622</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.658222013243804</v>
+        <v>-1.658222013243815</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5.319510061813116</v>
@@ -1083,7 +1083,7 @@
         <v>2.070565057908302</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-4.38777369032578</v>
+        <v>-4.387773690325769</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.659059221220085</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.586480920232166</v>
+        <v>-2.695402463712864</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0383062977299795</v>
+        <v>-0.8544297685247331</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.73227339917142</v>
+        <v>-11.37490846985157</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.771964811170527</v>
+        <v>0.8885140977561323</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.988524068833848</v>
+        <v>-3.003491107186756</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.4402293210998</v>
+        <v>-10.10799177072633</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6686932197068459</v>
+        <v>0.6079294691523072</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.005277226926540955</v>
+        <v>-0.07896442337785942</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-8.846527575631882</v>
+        <v>-8.685085605472574</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.57419517451146</v>
+        <v>10.92988837921996</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.21221430034215</v>
+        <v>13.85157065827844</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.519136002182304</v>
+        <v>6.179015953008852</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.17907200606513</v>
+        <v>10.43979867652783</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.316791393419756</v>
+        <v>7.134848974015258</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.341162224404564</v>
+        <v>1.939684709051084</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.805073324776091</v>
+        <v>8.741417122748329</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.550914997911651</v>
+        <v>7.828027897791568</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.427148313439805</v>
+        <v>1.750425996169223</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.07344404007936853</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.01894850948946089</v>
+        <v>-0.01894850948946102</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.05803687842026897</v>
@@ -1188,7 +1188,7 @@
         <v>0.02259026322550513</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.04787145531111107</v>
+        <v>-0.04787145531111094</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.05181396804619229</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02840906856973188</v>
+        <v>-0.02934789167335482</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-5.757313672472532e-05</v>
+        <v>-0.008511080970530086</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1208389995961461</v>
+        <v>-0.1251998712309881</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.009158860436630563</v>
+        <v>0.009540054414711657</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03091207307708762</v>
+        <v>-0.03125797214510298</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1129633552749095</v>
+        <v>-0.1073179230682354</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.006910103141828529</v>
+        <v>0.006900461273527807</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.055371603928078e-05</v>
+        <v>-0.000899068651608701</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.0977919140348862</v>
+        <v>-0.0956981338566369</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1415732406332597</v>
+        <v>0.132186831990654</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1723511185210865</v>
+        <v>0.1705362893965659</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.07709706354151266</v>
+        <v>0.07317371933419978</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1174026940230488</v>
+        <v>0.1196953694798267</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08274958380516755</v>
+        <v>0.0813844337306185</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01395701114314219</v>
+        <v>0.02145734632048092</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1016334414153445</v>
+        <v>0.1007048815195682</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09963336351255478</v>
+        <v>0.08995487705715843</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.01600155268778133</v>
+        <v>0.01946269564745098</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.48035865400945</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.341243072418142</v>
+        <v>2.34124307241812</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.5615699245766548</v>
@@ -1306,7 +1306,7 @@
         <v>-2.797463516102527</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-4.035818559359427</v>
+        <v>-4.03581855935945</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.148086146475927</v>
+        <v>-1.965982756365866</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.091493636809455</v>
+        <v>-7.753443551887686</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.449767888160715</v>
+        <v>-3.722932083773355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.112518177924413</v>
+        <v>-4.626990911129328</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.906544840834415</v>
+        <v>-7.635839153274524</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.8759934618029</v>
+        <v>-12.60176249874341</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.189952501371253</v>
+        <v>-2.082181307617164</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.803699954087292</v>
+        <v>-6.702700584406669</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.771476053099148</v>
+        <v>-7.261548177802503</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.86931307283554</v>
+        <v>10.95333952204775</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.008463791063736</v>
+        <v>4.905087206861367</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.562338837320269</v>
+        <v>8.226797487255752</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.928473570164389</v>
+        <v>3.045646180116292</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5523271320916697</v>
+        <v>0.7803361758767919</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.930184996355539</v>
+        <v>-3.749752046082167</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.528022029762451</v>
+        <v>4.625094968192331</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9405213524514009</v>
+        <v>0.7262825417815015</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.5827780710174403</v>
+        <v>-0.4293918804276352</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.01694503327395709</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.02679920954094257</v>
+        <v>0.02679920954094231</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.005968195339532725</v>
@@ -1411,7 +1411,7 @@
         <v>-0.03054670141748164</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.04406883013782443</v>
+        <v>-0.04406883013782467</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01238548254253131</v>
+        <v>-0.02173916999397946</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09017396130066549</v>
+        <v>-0.08433190007987304</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03824238799688677</v>
+        <v>-0.04149647121293047</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.05359276675086097</v>
+        <v>-0.04843575837401301</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08362964221624161</v>
+        <v>-0.07952836810440683</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1344317197995288</v>
+        <v>-0.1314459733763529</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02332197111238466</v>
+        <v>-0.02212222221496394</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.07366220642802249</v>
+        <v>-0.07256993497392537</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08450636021010731</v>
+        <v>-0.0786464819855761</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1313795101088733</v>
+        <v>0.1303899025319471</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.05981653556895371</v>
+        <v>0.05827025478416065</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1026839645141019</v>
+        <v>0.09881829589248504</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.03154872183727066</v>
+        <v>0.03321255109431077</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.005775396146154661</v>
+        <v>0.008952914109688199</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.04220806276832444</v>
+        <v>-0.04024063696067235</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05109843659342903</v>
+        <v>0.05126390200415858</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.01027858226274714</v>
+        <v>0.007590209100685179</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.006591358050146702</v>
+        <v>-0.004939851316899438</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.06591399137324538</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-3.91253910018301</v>
+        <v>-3.912539100182999</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.296047664741341</v>
@@ -1520,7 +1520,7 @@
         <v>0.2155396722772651</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.845622344079946</v>
+        <v>-2.845622344079934</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3161610224008929</v>
+        <v>-0.4131762790147478</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.219507017059047</v>
+        <v>-2.286203233286324</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.893589216680058</v>
+        <v>-4.898362862582779</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1669124596515465</v>
+        <v>0.1425292814186752</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.151391300219151</v>
+        <v>-2.2790448773381</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.126966958305463</v>
+        <v>-6.159059405508762</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8690612352043436</v>
+        <v>0.6683008580106251</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.494925591451982</v>
+        <v>-1.440731557889648</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.992397317818502</v>
+        <v>-4.778786133400018</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.478623434701936</v>
+        <v>5.880050912045133</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.626463922621501</v>
+        <v>3.830630259207688</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.86959334597359</v>
+        <v>2.575314075004782</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.00180939939249</v>
+        <v>4.17313354172977</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.188922762968804</v>
+        <v>2.150821926969599</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.587893655022027</v>
+        <v>-1.498124788625038</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.050054184701212</v>
+        <v>4.017535529100884</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.944182535208722</v>
+        <v>1.943137921678391</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.023581148039376</v>
+        <v>-0.792602341088962</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.0007027716482500122</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.04171529435546078</v>
+        <v>-0.04171529435546066</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.02480709416610304</v>
@@ -1625,7 +1625,7 @@
         <v>0.002328746492863186</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.03074484146595908</v>
+        <v>-0.03074484146595896</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.003139644900880711</v>
+        <v>-0.004443496846032098</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02394041606934784</v>
+        <v>-0.02463985840019334</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.05290832025157115</v>
+        <v>-0.05298853518009157</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.001825585616299491</v>
+        <v>0.001498013037996611</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.02267415124394357</v>
+        <v>-0.02406599035099046</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06479924502359169</v>
+        <v>-0.06492615095345128</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.009245212430339551</v>
+        <v>0.007136399431713058</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01593641568105026</v>
+        <v>-0.01540885953441667</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.05352334904587975</v>
+        <v>-0.05115745317386894</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.06179894415625932</v>
+        <v>0.06611583573908275</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.0403602536594285</v>
+        <v>0.04301796168634511</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.0209610440914319</v>
+        <v>0.02877833042295171</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.04330020190190602</v>
+        <v>0.04509222080510147</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02371019237758882</v>
+        <v>0.02315132669740678</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.01727264339839892</v>
+        <v>-0.01597934492012059</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04415963265631254</v>
+        <v>0.04388598726591117</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.02115303630181926</v>
+        <v>0.0214866346694983</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.01125936439284587</v>
+        <v>-0.008748060231073058</v>
       </c>
     </row>
     <row r="34">
